--- a/import_non_remboursable_test.xlsx
+++ b/import_non_remboursable_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ESI\2CP\S4\PRJP - Projet 2CPI\Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELITEBOOK\Desktop\prologue\18 mai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4F071-3E46-44DD-BCAB-37EC8AFA7B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1942DAE-DC79-4BA5-90C7-B5F5CF01EC1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Nom</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Dix mille dinar</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-08-02</t>
   </si>
 </sst>
 </file>
@@ -394,24 +400,24 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -462,14 +468,14 @@
       <c r="F2" s="1">
         <v>9</v>
       </c>
-      <c r="G2" s="1">
-        <v>43952</v>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H2" s="1">
         <v>10000</v>
       </c>
-      <c r="I2" s="1">
-        <v>43941</v>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
